--- a/REGULAR/OJT/NEW DONE/SEÑA,MARILYN B.xlsx
+++ b/REGULAR/OJT/NEW DONE/SEÑA,MARILYN B.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\New folder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35231171-907B-4579-A382-CE9759EFEA8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EA40C18-0BAC-4DA9-A27C-DBE111892C6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="648" uniqueCount="373">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="655" uniqueCount="373">
   <si>
     <t>PERIOD</t>
   </si>
@@ -3563,7 +3563,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K604" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K605" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -3941,12 +3941,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K604"/>
+  <dimension ref="A2:K605"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2688" topLeftCell="A580" activePane="bottomLeft"/>
-      <selection activeCell="N8" sqref="N8"/>
-      <selection pane="bottomLeft" activeCell="C589" sqref="C589"/>
+      <pane ySplit="2688" topLeftCell="A580"/>
+      <selection activeCell="E3" sqref="E2:E3"/>
+      <selection pane="bottomLeft" activeCell="C587" sqref="C587"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4103,7 +4103,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>107.31410000000005</v>
+        <v>75.314099999999996</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4371,11 +4371,15 @@
         <f t="shared" si="0"/>
         <v>33939</v>
       </c>
-      <c r="B22" s="20"/>
+      <c r="B22" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C22" s="13">
         <v>1.25</v>
       </c>
-      <c r="D22" s="39"/>
+      <c r="D22" s="39">
+        <v>5</v>
+      </c>
       <c r="E22" s="13"/>
       <c r="F22" s="20"/>
       <c r="G22" s="13">
@@ -4645,11 +4649,15 @@
         <f t="shared" si="0"/>
         <v>34304</v>
       </c>
-      <c r="B35" s="20"/>
+      <c r="B35" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C35" s="13">
         <v>1.25</v>
       </c>
-      <c r="D35" s="39"/>
+      <c r="D35" s="39">
+        <v>5</v>
+      </c>
       <c r="E35" s="13"/>
       <c r="F35" s="20"/>
       <c r="G35" s="13">
@@ -4919,11 +4927,15 @@
         <f t="shared" si="0"/>
         <v>34669</v>
       </c>
-      <c r="B48" s="20"/>
+      <c r="B48" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C48" s="13">
         <v>1.25</v>
       </c>
-      <c r="D48" s="39"/>
+      <c r="D48" s="39">
+        <v>5</v>
+      </c>
       <c r="E48" s="13"/>
       <c r="F48" s="20"/>
       <c r="G48" s="13">
@@ -5193,11 +5205,15 @@
         <f t="shared" si="0"/>
         <v>35034</v>
       </c>
-      <c r="B61" s="20"/>
+      <c r="B61" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C61" s="13">
         <v>1.25</v>
       </c>
-      <c r="D61" s="39"/>
+      <c r="D61" s="39">
+        <v>5</v>
+      </c>
       <c r="E61" s="13"/>
       <c r="F61" s="20"/>
       <c r="G61" s="13">
@@ -5467,11 +5483,15 @@
         <f t="shared" si="0"/>
         <v>35400</v>
       </c>
-      <c r="B74" s="20"/>
+      <c r="B74" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C74" s="13">
         <v>1.25</v>
       </c>
-      <c r="D74" s="39"/>
+      <c r="D74" s="39">
+        <v>5</v>
+      </c>
       <c r="E74" s="13"/>
       <c r="F74" s="20"/>
       <c r="G74" s="13">
@@ -5741,11 +5761,15 @@
         <f t="shared" si="1"/>
         <v>35765</v>
       </c>
-      <c r="B87" s="20"/>
+      <c r="B87" s="20" t="s">
+        <v>59</v>
+      </c>
       <c r="C87" s="13">
         <v>1.25</v>
       </c>
-      <c r="D87" s="39"/>
+      <c r="D87" s="39">
+        <v>5</v>
+      </c>
       <c r="E87" s="13"/>
       <c r="F87" s="20"/>
       <c r="G87" s="13">
@@ -16088,12 +16112,14 @@
       </c>
     </row>
     <row r="541" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A541" s="48" t="s">
-        <v>97</v>
-      </c>
-      <c r="B541" s="20"/>
+      <c r="A541" s="40"/>
+      <c r="B541" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="C541" s="13"/>
-      <c r="D541" s="39"/>
+      <c r="D541" s="39">
+        <v>2</v>
+      </c>
       <c r="E541" s="9"/>
       <c r="F541" s="20"/>
       <c r="G541" s="13" t="str">
@@ -16106,35 +16132,30 @@
       <c r="K541" s="20"/>
     </row>
     <row r="542" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A542" s="40">
-        <v>43831</v>
-      </c>
-      <c r="B542" s="20" t="s">
-        <v>98</v>
-      </c>
-      <c r="C542" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A542" s="48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B542" s="20"/>
+      <c r="C542" s="13"/>
       <c r="D542" s="39"/>
       <c r="E542" s="9"/>
       <c r="F542" s="20"/>
-      <c r="G542" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G542" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H542" s="39"/>
       <c r="I542" s="9"/>
       <c r="J542" s="11"/>
-      <c r="K542" s="20" t="s">
-        <v>99</v>
-      </c>
+      <c r="K542" s="20"/>
     </row>
     <row r="543" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A543" s="40">
-        <f>EDATE(A542,1)</f>
-        <v>43862</v>
-      </c>
-      <c r="B543" s="20"/>
+        <v>43831</v>
+      </c>
+      <c r="B543" s="20" t="s">
+        <v>98</v>
+      </c>
       <c r="C543" s="13">
         <v>1.25</v>
       </c>
@@ -16148,12 +16169,14 @@
       <c r="H543" s="39"/>
       <c r="I543" s="9"/>
       <c r="J543" s="11"/>
-      <c r="K543" s="20"/>
+      <c r="K543" s="20" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="544" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A544" s="40">
-        <f t="shared" ref="A544:A588" si="6">EDATE(A543,1)</f>
-        <v>43891</v>
+        <f>EDATE(A543,1)</f>
+        <v>43862</v>
       </c>
       <c r="B544" s="20"/>
       <c r="C544" s="13">
@@ -16173,8 +16196,8 @@
     </row>
     <row r="545" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A545" s="40">
-        <f t="shared" si="6"/>
-        <v>43922</v>
+        <f t="shared" ref="A545:A589" si="6">EDATE(A544,1)</f>
+        <v>43891</v>
       </c>
       <c r="B545" s="20"/>
       <c r="C545" s="13">
@@ -16195,7 +16218,7 @@
     <row r="546" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A546" s="40">
         <f t="shared" si="6"/>
-        <v>43952</v>
+        <v>43922</v>
       </c>
       <c r="B546" s="20"/>
       <c r="C546" s="13">
@@ -16216,7 +16239,7 @@
     <row r="547" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A547" s="40">
         <f t="shared" si="6"/>
-        <v>43983</v>
+        <v>43952</v>
       </c>
       <c r="B547" s="20"/>
       <c r="C547" s="13">
@@ -16237,7 +16260,7 @@
     <row r="548" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A548" s="40">
         <f t="shared" si="6"/>
-        <v>44013</v>
+        <v>43983</v>
       </c>
       <c r="B548" s="20"/>
       <c r="C548" s="13">
@@ -16258,7 +16281,7 @@
     <row r="549" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A549" s="40">
         <f t="shared" si="6"/>
-        <v>44044</v>
+        <v>44013</v>
       </c>
       <c r="B549" s="20"/>
       <c r="C549" s="13">
@@ -16279,7 +16302,7 @@
     <row r="550" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A550" s="40">
         <f t="shared" si="6"/>
-        <v>44075</v>
+        <v>44044</v>
       </c>
       <c r="B550" s="20"/>
       <c r="C550" s="13">
@@ -16300,7 +16323,7 @@
     <row r="551" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A551" s="40">
         <f t="shared" si="6"/>
-        <v>44105</v>
+        <v>44075</v>
       </c>
       <c r="B551" s="20"/>
       <c r="C551" s="13">
@@ -16321,7 +16344,7 @@
     <row r="552" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A552" s="40">
         <f t="shared" si="6"/>
-        <v>44136</v>
+        <v>44105</v>
       </c>
       <c r="B552" s="20"/>
       <c r="C552" s="13">
@@ -16342,17 +16365,13 @@
     <row r="553" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A553" s="40">
         <f t="shared" si="6"/>
-        <v>44166</v>
-      </c>
-      <c r="B553" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>44136</v>
+      </c>
+      <c r="B553" s="20"/>
       <c r="C553" s="13">
         <v>1.25</v>
       </c>
-      <c r="D553" s="39">
-        <v>5</v>
-      </c>
+      <c r="D553" s="39"/>
       <c r="E553" s="9"/>
       <c r="F553" s="20"/>
       <c r="G553" s="13">
@@ -16365,17 +16384,24 @@
       <c r="K553" s="20"/>
     </row>
     <row r="554" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A554" s="48" t="s">
-        <v>102</v>
-      </c>
-      <c r="B554" s="20"/>
-      <c r="C554" s="13"/>
-      <c r="D554" s="39"/>
+      <c r="A554" s="40">
+        <f t="shared" si="6"/>
+        <v>44166</v>
+      </c>
+      <c r="B554" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C554" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D554" s="39">
+        <v>5</v>
+      </c>
       <c r="E554" s="9"/>
       <c r="F554" s="20"/>
-      <c r="G554" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G554" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H554" s="39"/>
       <c r="I554" s="9"/>
@@ -16383,20 +16409,17 @@
       <c r="K554" s="20"/>
     </row>
     <row r="555" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A555" s="40">
-        <f>EDATE(A553,1)</f>
-        <v>44197</v>
+      <c r="A555" s="48" t="s">
+        <v>102</v>
       </c>
       <c r="B555" s="20"/>
-      <c r="C555" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C555" s="13"/>
       <c r="D555" s="39"/>
       <c r="E555" s="9"/>
       <c r="F555" s="20"/>
-      <c r="G555" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G555" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H555" s="39"/>
       <c r="I555" s="9"/>
@@ -16405,8 +16428,8 @@
     </row>
     <row r="556" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A556" s="40">
-        <f t="shared" si="6"/>
-        <v>44228</v>
+        <f>EDATE(A554,1)</f>
+        <v>44197</v>
       </c>
       <c r="B556" s="20"/>
       <c r="C556" s="13">
@@ -16427,7 +16450,7 @@
     <row r="557" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A557" s="40">
         <f t="shared" si="6"/>
-        <v>44256</v>
+        <v>44228</v>
       </c>
       <c r="B557" s="20"/>
       <c r="C557" s="13">
@@ -16448,7 +16471,7 @@
     <row r="558" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A558" s="40">
         <f t="shared" si="6"/>
-        <v>44287</v>
+        <v>44256</v>
       </c>
       <c r="B558" s="20"/>
       <c r="C558" s="13">
@@ -16469,7 +16492,7 @@
     <row r="559" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A559" s="40">
         <f t="shared" si="6"/>
-        <v>44317</v>
+        <v>44287</v>
       </c>
       <c r="B559" s="20"/>
       <c r="C559" s="13">
@@ -16490,7 +16513,7 @@
     <row r="560" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A560" s="40">
         <f t="shared" si="6"/>
-        <v>44348</v>
+        <v>44317</v>
       </c>
       <c r="B560" s="20"/>
       <c r="C560" s="13">
@@ -16511,7 +16534,7 @@
     <row r="561" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A561" s="40">
         <f t="shared" si="6"/>
-        <v>44378</v>
+        <v>44348</v>
       </c>
       <c r="B561" s="20"/>
       <c r="C561" s="13">
@@ -16532,7 +16555,7 @@
     <row r="562" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A562" s="40">
         <f t="shared" si="6"/>
-        <v>44409</v>
+        <v>44378</v>
       </c>
       <c r="B562" s="20"/>
       <c r="C562" s="13">
@@ -16553,7 +16576,7 @@
     <row r="563" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A563" s="40">
         <f t="shared" si="6"/>
-        <v>44440</v>
+        <v>44409</v>
       </c>
       <c r="B563" s="20"/>
       <c r="C563" s="13">
@@ -16574,7 +16597,7 @@
     <row r="564" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A564" s="40">
         <f t="shared" si="6"/>
-        <v>44470</v>
+        <v>44440</v>
       </c>
       <c r="B564" s="20"/>
       <c r="C564" s="13">
@@ -16595,7 +16618,7 @@
     <row r="565" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A565" s="40">
         <f t="shared" si="6"/>
-        <v>44501</v>
+        <v>44470</v>
       </c>
       <c r="B565" s="20"/>
       <c r="C565" s="13">
@@ -16616,17 +16639,13 @@
     <row r="566" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A566" s="40">
         <f t="shared" si="6"/>
-        <v>44531</v>
-      </c>
-      <c r="B566" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>44501</v>
+      </c>
+      <c r="B566" s="20"/>
       <c r="C566" s="13">
         <v>1.25</v>
       </c>
-      <c r="D566" s="39">
-        <v>5</v>
-      </c>
+      <c r="D566" s="39"/>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
       <c r="G566" s="13">
@@ -16639,17 +16658,24 @@
       <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A567" s="48" t="s">
-        <v>103</v>
-      </c>
-      <c r="B567" s="20"/>
-      <c r="C567" s="13"/>
-      <c r="D567" s="39"/>
+      <c r="A567" s="40">
+        <f t="shared" si="6"/>
+        <v>44531</v>
+      </c>
+      <c r="B567" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D567" s="39">
+        <v>5</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
@@ -16657,20 +16683,17 @@
       <c r="K567" s="20"/>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A568" s="40">
-        <f>EDATE(A566,1)</f>
-        <v>44562</v>
+      <c r="A568" s="48" t="s">
+        <v>103</v>
       </c>
       <c r="B568" s="20"/>
-      <c r="C568" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C568" s="13"/>
       <c r="D568" s="39"/>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
@@ -16679,8 +16702,8 @@
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A569" s="40">
-        <f t="shared" si="6"/>
-        <v>44593</v>
+        <f>EDATE(A567,1)</f>
+        <v>44562</v>
       </c>
       <c r="B569" s="20"/>
       <c r="C569" s="13">
@@ -16701,7 +16724,7 @@
     <row r="570" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A570" s="40">
         <f t="shared" si="6"/>
-        <v>44621</v>
+        <v>44593</v>
       </c>
       <c r="B570" s="20"/>
       <c r="C570" s="13">
@@ -16722,7 +16745,7 @@
     <row r="571" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A571" s="40">
         <f t="shared" si="6"/>
-        <v>44652</v>
+        <v>44621</v>
       </c>
       <c r="B571" s="20"/>
       <c r="C571" s="13">
@@ -16743,7 +16766,7 @@
     <row r="572" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A572" s="40">
         <f t="shared" si="6"/>
-        <v>44682</v>
+        <v>44652</v>
       </c>
       <c r="B572" s="20"/>
       <c r="C572" s="13">
@@ -16764,7 +16787,7 @@
     <row r="573" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A573" s="40">
         <f t="shared" si="6"/>
-        <v>44713</v>
+        <v>44682</v>
       </c>
       <c r="B573" s="20"/>
       <c r="C573" s="13">
@@ -16785,7 +16808,7 @@
     <row r="574" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A574" s="40">
         <f t="shared" si="6"/>
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B574" s="20"/>
       <c r="C574" s="13">
@@ -16806,7 +16829,7 @@
     <row r="575" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A575" s="40">
         <f t="shared" si="6"/>
-        <v>44774</v>
+        <v>44743</v>
       </c>
       <c r="B575" s="20"/>
       <c r="C575" s="13">
@@ -16827,7 +16850,7 @@
     <row r="576" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A576" s="40">
         <f t="shared" si="6"/>
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B576" s="20"/>
       <c r="C576" s="13">
@@ -16848,7 +16871,7 @@
     <row r="577" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A577" s="40">
         <f t="shared" si="6"/>
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B577" s="20"/>
       <c r="C577" s="13">
@@ -16869,7 +16892,7 @@
     <row r="578" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A578" s="40">
         <f t="shared" si="6"/>
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B578" s="20"/>
       <c r="C578" s="13">
@@ -16890,17 +16913,13 @@
     <row r="579" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A579" s="40">
         <f t="shared" si="6"/>
-        <v>44896</v>
-      </c>
-      <c r="B579" s="20" t="s">
-        <v>59</v>
-      </c>
+        <v>44866</v>
+      </c>
+      <c r="B579" s="20"/>
       <c r="C579" s="13">
         <v>1.25</v>
       </c>
-      <c r="D579" s="39">
-        <v>5</v>
-      </c>
+      <c r="D579" s="39"/>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
       <c r="G579" s="13">
@@ -16913,17 +16932,24 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A580" s="48" t="s">
-        <v>104</v>
-      </c>
-      <c r="B580" s="20"/>
-      <c r="C580" s="13"/>
-      <c r="D580" s="39"/>
+      <c r="A580" s="40">
+        <f t="shared" si="6"/>
+        <v>44896</v>
+      </c>
+      <c r="B580" s="20" t="s">
+        <v>59</v>
+      </c>
+      <c r="C580" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D580" s="39">
+        <v>5</v>
+      </c>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G580" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
@@ -16931,20 +16957,17 @@
       <c r="K580" s="20"/>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A581" s="40">
-        <f>EDATE(A579,1)</f>
-        <v>44927</v>
+      <c r="A581" s="48" t="s">
+        <v>104</v>
       </c>
       <c r="B581" s="20"/>
-      <c r="C581" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C581" s="13"/>
       <c r="D581" s="39"/>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
@@ -16953,8 +16976,8 @@
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A582" s="40">
-        <f t="shared" si="6"/>
-        <v>44958</v>
+        <f>EDATE(A580,1)</f>
+        <v>44927</v>
       </c>
       <c r="B582" s="20"/>
       <c r="C582" s="13">
@@ -16975,7 +16998,7 @@
     <row r="583" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A583" s="40">
         <f t="shared" si="6"/>
-        <v>44986</v>
+        <v>44958</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13">
@@ -16996,7 +17019,7 @@
     <row r="584" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A584" s="40">
         <f t="shared" si="6"/>
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -17017,11 +17040,9 @@
     <row r="585" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A585" s="40">
         <f t="shared" si="6"/>
-        <v>45047</v>
-      </c>
-      <c r="B585" s="20" t="s">
-        <v>50</v>
-      </c>
+        <v>45017</v>
+      </c>
+      <c r="B585" s="20"/>
       <c r="C585" s="13">
         <v>1.25</v>
       </c>
@@ -17035,33 +17056,37 @@
       <c r="H585" s="39"/>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="50">
-        <v>45065</v>
-      </c>
+      <c r="K585" s="20"/>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A586" s="40">
         <f t="shared" si="6"/>
-        <v>45078</v>
-      </c>
-      <c r="B586" s="20"/>
-      <c r="C586" s="13"/>
+        <v>45047</v>
+      </c>
+      <c r="B586" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="20"/>
+      <c r="K586" s="50">
+        <v>45065</v>
+      </c>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A587" s="40">
         <f t="shared" si="6"/>
-        <v>45108</v>
+        <v>45078</v>
       </c>
       <c r="B587" s="20"/>
       <c r="C587" s="13"/>
@@ -17080,7 +17105,7 @@
     <row r="588" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A588" s="40">
         <f t="shared" si="6"/>
-        <v>45139</v>
+        <v>45108</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -17097,7 +17122,10 @@
       <c r="K588" s="20"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A589" s="40"/>
+      <c r="A589" s="40">
+        <f t="shared" si="6"/>
+        <v>45139</v>
+      </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
       <c r="D589" s="39"/>
@@ -17337,20 +17365,36 @@
       <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A604" s="41"/>
-      <c r="B604" s="15"/>
-      <c r="C604" s="42"/>
-      <c r="D604" s="43"/>
+      <c r="A604" s="40"/>
+      <c r="B604" s="20"/>
+      <c r="C604" s="13"/>
+      <c r="D604" s="39"/>
       <c r="E604" s="9"/>
-      <c r="F604" s="15"/>
-      <c r="G604" s="42" t="str">
+      <c r="F604" s="20"/>
+      <c r="G604" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H604" s="43"/>
+      <c r="H604" s="39"/>
       <c r="I604" s="9"/>
-      <c r="J604" s="12"/>
-      <c r="K604" s="15"/>
+      <c r="J604" s="11"/>
+      <c r="K604" s="20"/>
+    </row>
+    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A605" s="41"/>
+      <c r="B605" s="15"/>
+      <c r="C605" s="42"/>
+      <c r="D605" s="43"/>
+      <c r="E605" s="9"/>
+      <c r="F605" s="15"/>
+      <c r="G605" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H605" s="43"/>
+      <c r="I605" s="9"/>
+      <c r="J605" s="12"/>
+      <c r="K605" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
